--- a/netflixsub19-20.xlsx
+++ b/netflixsub19-20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishy/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A321B-A21E-4847-9937-A8D16FD350D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47140C42-F9D9-BE43-8CBC-66C8631CB7C9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10780" yWindow="2440" windowWidth="30760" windowHeight="18700" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
+    <workbookView xWindow="7640" yWindow="2440" windowWidth="30760" windowHeight="18700" xr2:uid="{2249F48C-4DC3-2646-B88E-8095E6095568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,12 +112,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -438,7 +437,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,16 +446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -524,7 +523,7 @@
         <v>148.9</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -538,7 +537,7 @@
         <v>151.6</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>1820</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -552,7 +551,7 @@
         <v>158.30000000000001</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1893</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -621,7 +620,7 @@
       <c r="B13" s="1">
         <v>73.900000000000006</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>6644</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -635,7 +634,7 @@
       <c r="B14" s="1">
         <v>182.9</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>2207</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -649,7 +648,7 @@
       <c r="B15" s="1">
         <v>192.9</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>2462</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -663,7 +662,7 @@
       <c r="B16" s="1">
         <v>95.2</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2654</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -677,7 +676,7 @@
       <c r="B17" s="1">
         <v>203.7</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>2822</v>
       </c>
       <c r="D17" s="1" t="s">
